--- a/data/trans_orig/P19C06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C06-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{817CC5B3-48E6-42BA-84D5-B9BE637482F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6321370-99BB-4C49-8C72-376B638581BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F1CFA69C-83ED-45C5-9308-5ABAFC3812F6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1DDF2776-98AA-48D5-A61B-DB83F7A2AF56}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="348">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -80,1015 +80,1009 @@
     <t>0,28%</t>
   </si>
   <si>
-    <t>2,71%</t>
+    <t>2,6%</t>
   </si>
   <si>
     <t>0,96%</t>
   </si>
   <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
     <t>0,47%</t>
   </si>
   <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2015 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
   </si>
   <si>
     <t>97,57%</t>
   </si>
   <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
   </si>
   <si>
     <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
   </si>
 </sst>
 </file>
@@ -1500,7 +1494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C75E409-047D-4AC6-BDE6-15845D2DB465}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2C30BF-D522-4DC0-B438-DA9E0C7D1988}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2089,13 +2083,13 @@
         <v>1910</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -2104,13 +2098,13 @@
         <v>9532</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -2119,10 +2113,10 @@
         <v>11442</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>77</v>
@@ -2140,13 +2134,13 @@
         <v>402838</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>419</v>
@@ -2155,13 +2149,13 @@
         <v>429653</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>797</v>
@@ -2170,13 +2164,13 @@
         <v>832491</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2262,7 +2256,7 @@
         <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>91</v>
@@ -2316,7 +2310,7 @@
         <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M17" s="7">
         <v>579</v>
@@ -2417,10 +2411,10 @@
         <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -2429,13 +2423,13 @@
         <v>9860</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2471,7 +2465,7 @@
         <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>788</v>
@@ -2480,13 +2474,13 @@
         <v>784815</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2560,7 +2554,7 @@
         <v>35</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -2569,13 +2563,13 @@
         <v>30986</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -2587,10 +2581,10 @@
         <v>57</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,7 +2602,7 @@
         <v>123</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>44</v>
@@ -2620,13 +2614,13 @@
         <v>2709951</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="M23" s="7">
         <v>5028</v>
@@ -2638,7 +2632,7 @@
         <v>66</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>127</v>
@@ -2719,7 +2713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727FECAF-A80A-45C3-B16C-8E95169EA02C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D29D14-431C-417C-B0FB-7B8BF99FEF62}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2861,7 +2855,7 @@
         <v>133</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>134</v>
@@ -2906,7 +2900,7 @@
         <v>359</v>
       </c>
       <c r="I5" s="7">
-        <v>368143</v>
+        <v>368144</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>141</v>
@@ -2915,7 +2909,7 @@
         <v>142</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>727</v>
@@ -2957,7 +2951,7 @@
         <v>362</v>
       </c>
       <c r="I6" s="7">
-        <v>370990</v>
+        <v>370991</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3016,10 +3010,10 @@
         <v>149</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -3031,10 +3025,10 @@
         <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,13 +3043,13 @@
         <v>591898</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>518</v>
@@ -3064,13 +3058,13 @@
         <v>553848</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>62</v>
       </c>
       <c r="M8" s="7">
         <v>1093</v>
@@ -3079,13 +3073,13 @@
         <v>1145745</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3153,13 +3147,13 @@
         <v>6986</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -3168,13 +3162,13 @@
         <v>15763</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -3183,13 +3177,13 @@
         <v>22749</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3210,7 +3204,7 @@
         <v>168</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="H11" s="7">
         <v>605</v>
@@ -3219,13 +3213,13 @@
         <v>642646</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M11" s="7">
         <v>1161</v>
@@ -3234,13 +3228,13 @@
         <v>1222311</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,13 +3302,13 @@
         <v>6600</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -3323,13 +3317,13 @@
         <v>10105</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -3338,13 +3332,13 @@
         <v>16705</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,16 +3350,16 @@
         <v>478</v>
       </c>
       <c r="D14" s="7">
-        <v>536240</v>
+        <v>536239</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="H14" s="7">
         <v>484</v>
@@ -3374,13 +3368,13 @@
         <v>553246</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="M14" s="7">
         <v>962</v>
@@ -3389,13 +3383,13 @@
         <v>1089485</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,7 +3401,7 @@
         <v>483</v>
       </c>
       <c r="D15" s="7">
-        <v>542840</v>
+        <v>542839</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3463,13 +3457,13 @@
         <v>3104</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -3478,13 +3472,13 @@
         <v>5269</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>194</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -3496,10 +3490,10 @@
         <v>57</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>191</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,10 +3511,10 @@
         <v>127</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H17" s="7">
         <v>348</v>
@@ -3529,13 +3523,13 @@
         <v>385446</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M17" s="7">
         <v>678</v>
@@ -3547,10 +3541,10 @@
         <v>66</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,13 +3612,13 @@
         <v>1990</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -3633,13 +3627,13 @@
         <v>6219</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -3651,10 +3645,10 @@
         <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>71</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,13 +3663,13 @@
         <v>445426</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H20" s="7">
         <v>558</v>
@@ -3684,13 +3678,13 @@
         <v>596783</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>206</v>
+        <v>29</v>
       </c>
       <c r="M20" s="7">
         <v>960</v>
@@ -3702,10 +3696,10 @@
         <v>60</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,13 +3767,13 @@
         <v>29005</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -3788,13 +3782,13 @@
         <v>45167</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M22" s="7">
         <v>69</v>
@@ -3803,13 +3797,13 @@
         <v>74172</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,13 +3818,13 @@
         <v>2885653</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H23" s="7">
         <v>2872</v>
@@ -3839,13 +3833,13 @@
         <v>3100110</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="M23" s="7">
         <v>5581</v>
@@ -3854,13 +3848,13 @@
         <v>5985764</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3938,7 +3932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4543DDE-8581-4D78-AAEC-4386CA678EF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7EF2D9A-A3B9-4EEA-93CD-11C9FD29AD1E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3955,7 +3949,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4062,13 +4056,13 @@
         <v>3011</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -4080,10 +4074,10 @@
         <v>57</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -4095,10 +4089,10 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,13 +4107,13 @@
         <v>349829</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H5" s="7">
         <v>355</v>
@@ -4131,10 +4125,10 @@
         <v>66</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="M5" s="7">
         <v>683</v>
@@ -4146,10 +4140,10 @@
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>28</v>
+        <v>232</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4211,13 @@
         <v>5695</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>228</v>
+        <v>136</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>234</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4232,13 +4226,13 @@
         <v>6653</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -4247,13 +4241,13 @@
         <v>12348</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>55</v>
+        <v>239</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,13 +4262,13 @@
         <v>487383</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>235</v>
+        <v>145</v>
       </c>
       <c r="H8" s="7">
         <v>503</v>
@@ -4283,13 +4277,13 @@
         <v>490067</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="M8" s="7">
         <v>973</v>
@@ -4298,13 +4292,13 @@
         <v>977449</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,7 +4372,7 @@
         <v>36</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -4387,13 +4381,13 @@
         <v>5279</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -4402,13 +4396,13 @@
         <v>9586</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>244</v>
+        <v>136</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>92</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,7 +4420,7 @@
         <v>141</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>46</v>
@@ -4438,13 +4432,13 @@
         <v>567801</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>25</v>
+        <v>256</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="M11" s="7">
         <v>1098</v>
@@ -4453,13 +4447,13 @@
         <v>1121354</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>100</v>
+        <v>258</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>248</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,13 +4521,13 @@
         <v>6549</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -4542,13 +4536,13 @@
         <v>5411</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -4557,13 +4551,13 @@
         <v>11959</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>254</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,13 +4572,13 @@
         <v>505823</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>502</v>
@@ -4593,13 +4587,13 @@
         <v>539473</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="M14" s="7">
         <v>960</v>
@@ -4608,13 +4602,13 @@
         <v>1045297</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>259</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,13 +4676,13 @@
         <v>6220</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>261</v>
+        <v>34</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -4697,13 +4691,13 @@
         <v>9049</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -4712,13 +4706,13 @@
         <v>15269</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>265</v>
+        <v>137</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>266</v>
+        <v>210</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4733,13 +4727,13 @@
         <v>364782</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>268</v>
+        <v>42</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H17" s="7">
         <v>337</v>
@@ -4748,13 +4742,13 @@
         <v>386824</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M17" s="7">
         <v>661</v>
@@ -4763,13 +4757,13 @@
         <v>751606</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>272</v>
+        <v>144</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>274</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4831,13 @@
         <v>5821</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -4852,13 +4846,13 @@
         <v>7979</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -4867,13 +4861,13 @@
         <v>13800</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>282</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,13 +4882,13 @@
         <v>371361</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>283</v>
+        <v>220</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H20" s="7">
         <v>423</v>
@@ -4903,13 +4897,13 @@
         <v>496848</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>286</v>
+        <v>125</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="M20" s="7">
         <v>818</v>
@@ -4918,13 +4912,13 @@
         <v>868209</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,13 +4986,13 @@
         <v>31603</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>51</v>
+        <v>285</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>291</v>
+        <v>37</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -5007,13 +5001,13 @@
         <v>38279</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>212</v>
+        <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>292</v>
+        <v>164</v>
       </c>
       <c r="M22" s="7">
         <v>64</v>
@@ -5022,13 +5016,13 @@
         <v>69882</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,16 +5034,16 @@
         <v>2502</v>
       </c>
       <c r="D23" s="7">
-        <v>2632731</v>
+        <v>2632730</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>167</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>295</v>
+        <v>45</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>60</v>
+        <v>288</v>
       </c>
       <c r="H23" s="7">
         <v>2691</v>
@@ -5058,28 +5052,28 @@
         <v>2829036</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>296</v>
+        <v>173</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="M23" s="7">
         <v>5193</v>
       </c>
       <c r="N23" s="7">
-        <v>5461767</v>
+        <v>5461766</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>213</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,7 +5085,7 @@
         <v>2530</v>
       </c>
       <c r="D24" s="7">
-        <v>2664334</v>
+        <v>2664333</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -5121,7 +5115,7 @@
         <v>5257</v>
       </c>
       <c r="N24" s="7">
-        <v>5531649</v>
+        <v>5531648</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -5157,7 +5151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376D8482-73A2-432E-8AD7-F9AE32D11892}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DAA1DF-3A10-4FE3-AE6E-DA774BE7CBE7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5174,7 +5168,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5281,13 +5275,13 @@
         <v>4506</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5296,13 +5290,13 @@
         <v>2035</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -5311,13 +5305,13 @@
         <v>6541</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,13 +5326,13 @@
         <v>353252</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H5" s="7">
         <v>194</v>
@@ -5347,13 +5341,13 @@
         <v>342461</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M5" s="7">
         <v>349</v>
@@ -5362,13 +5356,13 @@
         <v>695713</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5436,13 +5430,13 @@
         <v>2717</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -5451,13 +5445,13 @@
         <v>5454</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -5466,13 +5460,13 @@
         <v>8171</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>315</v>
+        <v>151</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>316</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5487,13 +5481,13 @@
         <v>404483</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>317</v>
+        <v>248</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H8" s="7">
         <v>437</v>
@@ -5502,13 +5496,13 @@
         <v>480421</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M8" s="7">
         <v>716</v>
@@ -5517,13 +5511,13 @@
         <v>884904</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>320</v>
+        <v>232</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>321</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5591,13 +5585,13 @@
         <v>1173</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>322</v>
+        <v>259</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -5606,13 +5600,13 @@
         <v>4121</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -5621,13 +5615,13 @@
         <v>5294</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>323</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5642,13 +5636,13 @@
         <v>543182</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>324</v>
+        <v>263</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H11" s="7">
         <v>819</v>
@@ -5657,13 +5651,13 @@
         <v>568075</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>1345</v>
@@ -5672,13 +5666,13 @@
         <v>1111258</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>325</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5749,10 +5743,10 @@
         <v>118</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -5761,13 +5755,13 @@
         <v>13045</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>199</v>
+        <v>318</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>327</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -5776,13 +5770,13 @@
         <v>20763</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>329</v>
+        <v>250</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,10 +5794,10 @@
         <v>123</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="H14" s="7">
         <v>1100</v>
@@ -5812,13 +5806,13 @@
         <v>720762</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>331</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>204</v>
+        <v>323</v>
       </c>
       <c r="M14" s="7">
         <v>1735</v>
@@ -5827,13 +5821,13 @@
         <v>1415637</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>158</v>
+        <v>325</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>333</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5901,13 +5895,13 @@
         <v>6298</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -5916,13 +5910,13 @@
         <v>8378</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -5931,13 +5925,13 @@
         <v>14676</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,13 +5946,13 @@
         <v>578472</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="H17" s="7">
         <v>967</v>
@@ -5967,28 +5961,28 @@
         <v>573965</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="M17" s="7">
         <v>1605</v>
       </c>
       <c r="N17" s="7">
-        <v>1152437</v>
+        <v>1152438</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6030,7 +6024,7 @@
         <v>1626</v>
       </c>
       <c r="N18" s="7">
-        <v>1167113</v>
+        <v>1167114</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6056,13 +6050,13 @@
         <v>4881</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>340</v>
+        <v>147</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -6071,13 +6065,13 @@
         <v>8062</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>341</v>
+        <v>285</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -6089,10 +6083,10 @@
         <v>133</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>249</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,13 +6101,13 @@
         <v>675581</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>283</v>
+        <v>337</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>345</v>
+        <v>154</v>
       </c>
       <c r="H20" s="7">
         <v>1642</v>
@@ -6122,13 +6116,13 @@
         <v>990068</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>346</v>
+        <v>288</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="M20" s="7">
         <v>2637</v>
@@ -6140,10 +6134,10 @@
         <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6211,13 +6205,13 @@
         <v>27293</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>177</v>
+        <v>93</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>190</v>
+        <v>342</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>109</v>
+        <v>259</v>
       </c>
       <c r="H22" s="7">
         <v>58</v>
@@ -6229,10 +6223,10 @@
         <v>57</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>219</v>
+        <v>93</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>165</v>
+        <v>343</v>
       </c>
       <c r="M22" s="7">
         <v>83</v>
@@ -6244,10 +6238,10 @@
         <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>232</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,13 +6256,13 @@
         <v>3249845</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>116</v>
+        <v>263</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>197</v>
+        <v>345</v>
       </c>
       <c r="H23" s="7">
         <v>5159</v>
@@ -6280,10 +6274,10 @@
         <v>66</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>171</v>
+        <v>346</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>223</v>
+        <v>102</v>
       </c>
       <c r="M23" s="7">
         <v>8387</v>
@@ -6295,10 +6289,10 @@
         <v>21</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>239</v>
+        <v>347</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P19C06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C06-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6321370-99BB-4C49-8C72-376B638581BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BB79ABF-3A2B-49BE-8ED9-97FB7BC8A985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1DDF2776-98AA-48D5-A61B-DB83F7A2AF56}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3B08FC49-7A56-4278-AE7E-86F4C739F8D3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="346">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -80,7 +80,7 @@
     <t>0,28%</t>
   </si>
   <si>
-    <t>2,6%</t>
+    <t>2,7%</t>
   </si>
   <si>
     <t>0,96%</t>
@@ -89,994 +89,988 @@
     <t>0,24%</t>
   </si>
   <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
     <t>2,27%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
   </si>
   <si>
     <t>97,73%</t>
   </si>
   <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
   </si>
   <si>
     <t>97,1%</t>
   </si>
   <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
   </si>
   <si>
     <t>99,69%</t>
   </si>
   <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
     <t>98,68%</t>
   </si>
   <si>
-    <t>99,54%</t>
-  </si>
-  <si>
     <t>98,82%</t>
   </si>
   <si>
     <t>99,55%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
     <t>1,48%</t>
   </si>
   <si>
     <t>1,27%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
   </si>
   <si>
     <t>98,52%</t>
@@ -1494,7 +1488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2C30BF-D522-4DC0-B438-DA9E0C7D1988}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5FA299-B15A-4F05-93CA-F01AAD854C22}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1931,10 +1925,10 @@
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -1943,13 +1937,13 @@
         <v>8319</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -1958,13 +1952,13 @@
         <v>12243</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1979,13 +1973,13 @@
         <v>499009</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="H11" s="7">
         <v>567</v>
@@ -1994,13 +1988,13 @@
         <v>595246</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1049</v>
@@ -2009,13 +2003,13 @@
         <v>1094254</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,7 +2065,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2083,13 +2077,13 @@
         <v>1910</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -2098,13 +2092,13 @@
         <v>9532</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -2113,13 +2107,13 @@
         <v>11442</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2134,13 +2128,13 @@
         <v>402838</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>419</v>
@@ -2149,13 +2143,13 @@
         <v>429653</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>797</v>
@@ -2164,13 +2158,13 @@
         <v>832491</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2226,7 +2220,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2238,13 +2232,13 @@
         <v>6602</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2253,13 +2247,13 @@
         <v>2671</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -2268,13 +2262,13 @@
         <v>9273</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2289,13 +2283,13 @@
         <v>265747</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>310</v>
@@ -2304,13 +2298,13 @@
         <v>316411</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M17" s="7">
         <v>579</v>
@@ -2319,13 +2313,13 @@
         <v>582158</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2381,7 +2375,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2393,13 +2387,13 @@
         <v>6982</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -2408,13 +2402,13 @@
         <v>2878</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -2423,13 +2417,13 @@
         <v>9860</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2444,13 +2438,13 @@
         <v>332547</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H20" s="7">
         <v>446</v>
@@ -2459,13 +2453,13 @@
         <v>452268</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="M20" s="7">
         <v>788</v>
@@ -2474,13 +2468,13 @@
         <v>784815</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,13 +2542,13 @@
         <v>26937</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -2563,13 +2557,13 @@
         <v>30986</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -2578,13 +2572,13 @@
         <v>57923</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2599,13 +2593,13 @@
         <v>2427805</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H23" s="7">
         <v>2648</v>
@@ -2614,13 +2608,13 @@
         <v>2709951</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="M23" s="7">
         <v>5028</v>
@@ -2629,13 +2623,13 @@
         <v>5137756</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2691,7 +2685,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2713,7 +2707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D29D14-431C-417C-B0FB-7B8BF99FEF62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EBC6E7-18F5-447A-97CD-860DF7EB35AB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2730,7 +2724,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2837,13 +2831,13 @@
         <v>4957</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -2852,13 +2846,13 @@
         <v>2847</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -2867,13 +2861,13 @@
         <v>7804</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,25 +2882,25 @@
         <v>374219</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>359</v>
       </c>
       <c r="I5" s="7">
-        <v>368144</v>
+        <v>368143</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -2918,13 +2912,13 @@
         <v>742362</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,7 +2945,7 @@
         <v>362</v>
       </c>
       <c r="I6" s="7">
-        <v>370991</v>
+        <v>370990</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2992,13 +2986,13 @@
         <v>5369</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -3007,13 +3001,13 @@
         <v>4962</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -3022,13 +3016,13 @@
         <v>10331</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,13 +3037,13 @@
         <v>591898</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="H8" s="7">
         <v>518</v>
@@ -3058,13 +3052,13 @@
         <v>553848</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="M8" s="7">
         <v>1093</v>
@@ -3073,13 +3067,13 @@
         <v>1145745</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,13 +3141,13 @@
         <v>6986</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -3162,13 +3156,13 @@
         <v>15763</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -3177,13 +3171,13 @@
         <v>22749</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>166</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,13 +3192,13 @@
         <v>579665</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="H11" s="7">
         <v>605</v>
@@ -3213,13 +3207,13 @@
         <v>642646</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="M11" s="7">
         <v>1161</v>
@@ -3228,13 +3222,13 @@
         <v>1222311</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,7 +3284,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3302,13 +3296,13 @@
         <v>6600</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -3317,13 +3311,13 @@
         <v>10105</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>105</v>
+        <v>168</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -3332,13 +3326,13 @@
         <v>16705</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,16 +3344,16 @@
         <v>478</v>
       </c>
       <c r="D14" s="7">
-        <v>536239</v>
+        <v>536240</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="H14" s="7">
         <v>484</v>
@@ -3368,13 +3362,13 @@
         <v>553246</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="M14" s="7">
         <v>962</v>
@@ -3383,13 +3377,13 @@
         <v>1089485</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,7 +3395,7 @@
         <v>483</v>
       </c>
       <c r="D15" s="7">
-        <v>542839</v>
+        <v>542840</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3445,7 +3439,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3457,13 +3451,13 @@
         <v>3104</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -3472,13 +3466,13 @@
         <v>5269</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -3487,13 +3481,13 @@
         <v>8373</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3508,13 +3502,13 @@
         <v>358206</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H17" s="7">
         <v>348</v>
@@ -3523,13 +3517,13 @@
         <v>385446</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M17" s="7">
         <v>678</v>
@@ -3538,13 +3532,13 @@
         <v>743652</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,7 +3594,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3612,13 +3606,13 @@
         <v>1990</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -3627,13 +3621,13 @@
         <v>6219</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>202</v>
+        <v>86</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -3645,10 +3639,10 @@
         <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>204</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,13 +3657,13 @@
         <v>445426</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H20" s="7">
         <v>558</v>
@@ -3678,13 +3672,13 @@
         <v>596783</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>207</v>
+        <v>94</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="M20" s="7">
         <v>960</v>
@@ -3693,13 +3687,13 @@
         <v>1042209</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>208</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,13 +3761,13 @@
         <v>29005</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>211</v>
+        <v>103</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -3782,13 +3776,13 @@
         <v>45167</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>72</v>
+        <v>206</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>213</v>
+        <v>52</v>
       </c>
       <c r="M22" s="7">
         <v>69</v>
@@ -3797,13 +3791,13 @@
         <v>74172</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>214</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,13 +3812,13 @@
         <v>2885653</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c r="H23" s="7">
         <v>2872</v>
@@ -3833,13 +3827,13 @@
         <v>3100110</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>218</v>
+        <v>60</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="M23" s="7">
         <v>5581</v>
@@ -3848,13 +3842,13 @@
         <v>5985764</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>220</v>
+        <v>119</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>221</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,7 +3904,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3932,7 +3926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7EF2D9A-A3B9-4EEA-93CD-11C9FD29AD1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47A6F75-606A-4038-AE21-21C6FDA5B582}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3949,7 +3943,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4056,13 +4050,13 @@
         <v>3011</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -4071,13 +4065,13 @@
         <v>3909</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -4089,10 +4083,10 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>227</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,13 +4101,13 @@
         <v>349829</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="H5" s="7">
         <v>355</v>
@@ -4122,13 +4116,13 @@
         <v>348021</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>196</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>683</v>
@@ -4140,10 +4134,10 @@
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>232</v>
+        <v>136</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4205,13 @@
         <v>5695</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4226,13 +4220,13 @@
         <v>6653</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>237</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -4241,13 +4235,13 @@
         <v>12348</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>239</v>
+        <v>54</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,13 +4256,13 @@
         <v>487383</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
         <v>503</v>
@@ -4277,13 +4271,13 @@
         <v>490067</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="M8" s="7">
         <v>973</v>
@@ -4292,13 +4286,13 @@
         <v>977449</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>248</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4360,13 @@
         <v>4307</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -4381,13 +4375,13 @@
         <v>5279</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -4396,13 +4390,13 @@
         <v>9586</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,13 +4411,13 @@
         <v>553553</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
         <v>571</v>
@@ -4432,13 +4426,13 @@
         <v>567801</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="M11" s="7">
         <v>1098</v>
@@ -4447,13 +4441,13 @@
         <v>1121354</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,7 +4503,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4521,13 +4515,13 @@
         <v>6549</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -4536,13 +4530,13 @@
         <v>5411</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -4551,13 +4545,13 @@
         <v>11959</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,13 +4566,13 @@
         <v>505823</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="H14" s="7">
         <v>502</v>
@@ -4587,13 +4581,13 @@
         <v>539473</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="M14" s="7">
         <v>960</v>
@@ -4602,13 +4596,13 @@
         <v>1045297</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>253</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,7 +4658,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4676,13 +4670,13 @@
         <v>6220</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>34</v>
+        <v>255</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -4691,13 +4685,13 @@
         <v>9049</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>134</v>
+        <v>258</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -4706,13 +4700,13 @@
         <v>15269</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>137</v>
+        <v>261</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,13 +4721,13 @@
         <v>364782</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>42</v>
+        <v>264</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H17" s="7">
         <v>337</v>
@@ -4742,13 +4736,13 @@
         <v>386824</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>142</v>
+        <v>267</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>127</v>
+        <v>269</v>
       </c>
       <c r="M17" s="7">
         <v>661</v>
@@ -4757,13 +4751,13 @@
         <v>751606</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>144</v>
+        <v>270</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,7 +4813,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4831,13 +4825,13 @@
         <v>5821</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>215</v>
+        <v>273</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -4846,13 +4840,13 @@
         <v>7979</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>277</v>
+        <v>54</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -4861,13 +4855,13 @@
         <v>13800</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>279</v>
+        <v>115</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>237</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,13 +4876,13 @@
         <v>371361</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>220</v>
+        <v>277</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H20" s="7">
         <v>423</v>
@@ -4897,13 +4891,13 @@
         <v>496848</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>125</v>
+        <v>201</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>283</v>
+        <v>63</v>
       </c>
       <c r="M20" s="7">
         <v>818</v>
@@ -4912,13 +4906,13 @@
         <v>868209</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>284</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>244</v>
+        <v>62</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,10 +4980,10 @@
         <v>31603</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>37</v>
@@ -5001,13 +4995,13 @@
         <v>38279</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>14</v>
+        <v>282</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>64</v>
@@ -5016,13 +5010,13 @@
         <v>69882</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>287</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,16 +5028,16 @@
         <v>2502</v>
       </c>
       <c r="D23" s="7">
-        <v>2632730</v>
+        <v>2632731</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H23" s="7">
         <v>2691</v>
@@ -5052,13 +5046,13 @@
         <v>2829036</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>24</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>5193</v>
@@ -5067,13 +5061,13 @@
         <v>5461766</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>290</v>
+        <v>97</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5085,7 +5079,7 @@
         <v>2530</v>
       </c>
       <c r="D24" s="7">
-        <v>2664333</v>
+        <v>2664334</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -5129,7 +5123,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -5151,7 +5145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DAA1DF-3A10-4FE3-AE6E-DA774BE7CBE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0110EF27-9402-49D4-B208-2ABE223626BA}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5168,7 +5162,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5275,13 +5269,13 @@
         <v>4506</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5290,13 +5284,13 @@
         <v>2035</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>293</v>
+        <v>57</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -5305,13 +5299,13 @@
         <v>6541</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,13 +5320,13 @@
         <v>353252</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H5" s="7">
         <v>194</v>
@@ -5341,13 +5335,13 @@
         <v>342461</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>299</v>
+        <v>66</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M5" s="7">
         <v>349</v>
@@ -5356,13 +5350,13 @@
         <v>695713</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,13 +5424,13 @@
         <v>2717</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>239</v>
+        <v>298</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>299</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -5445,13 +5439,13 @@
         <v>5454</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -5460,13 +5454,13 @@
         <v>8171</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>227</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5481,13 +5475,13 @@
         <v>404483</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>248</v>
+        <v>304</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H8" s="7">
         <v>437</v>
@@ -5496,13 +5490,13 @@
         <v>480421</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>308</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M8" s="7">
         <v>716</v>
@@ -5511,13 +5505,13 @@
         <v>884904</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>232</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5588,10 +5582,10 @@
         <v>310</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -5603,10 +5597,10 @@
         <v>311</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -5615,13 +5609,13 @@
         <v>5294</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>312</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5639,10 +5633,10 @@
         <v>313</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H11" s="7">
         <v>819</v>
@@ -5654,10 +5648,10 @@
         <v>314</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M11" s="7">
         <v>1345</v>
@@ -5666,10 +5660,10 @@
         <v>1111258</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>315</v>
@@ -5728,7 +5722,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5740,10 +5734,10 @@
         <v>7718</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>316</v>
@@ -5758,10 +5752,10 @@
         <v>317</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -5770,13 +5764,13 @@
         <v>20763</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>319</v>
+        <v>117</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>320</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,13 +5785,13 @@
         <v>694876</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H14" s="7">
         <v>1100</v>
@@ -5806,13 +5800,13 @@
         <v>720762</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>321</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>323</v>
+        <v>211</v>
       </c>
       <c r="M14" s="7">
         <v>1735</v>
@@ -5821,13 +5815,13 @@
         <v>1415637</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>324</v>
+        <v>120</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>325</v>
+        <v>113</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5883,7 +5877,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5895,13 +5889,13 @@
         <v>6298</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>240</v>
+        <v>323</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -5910,13 +5904,13 @@
         <v>8378</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>72</v>
+        <v>206</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -5925,13 +5919,13 @@
         <v>14676</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5946,13 +5940,13 @@
         <v>578472</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>327</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H17" s="7">
         <v>967</v>
@@ -5961,13 +5955,13 @@
         <v>573965</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="M17" s="7">
         <v>1605</v>
@@ -5976,13 +5970,13 @@
         <v>1152438</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6038,7 +6032,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6053,10 +6047,10 @@
         <v>311</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>147</v>
+        <v>330</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -6065,13 +6059,13 @@
         <v>8062</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>285</v>
+        <v>332</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -6080,13 +6074,13 @@
         <v>12943</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,10 +6098,10 @@
         <v>314</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H20" s="7">
         <v>1642</v>
@@ -6116,13 +6110,13 @@
         <v>990068</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>339</v>
+        <v>202</v>
       </c>
       <c r="M20" s="7">
         <v>2637</v>
@@ -6131,7 +6125,7 @@
         <v>1665649</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>340</v>
@@ -6205,13 +6199,13 @@
         <v>27293</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>342</v>
+        <v>256</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="H22" s="7">
         <v>58</v>
@@ -6220,13 +6214,13 @@
         <v>41096</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M22" s="7">
         <v>83</v>
@@ -6241,7 +6235,7 @@
         <v>51</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6256,13 +6250,13 @@
         <v>3249845</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>345</v>
+        <v>266</v>
       </c>
       <c r="H23" s="7">
         <v>5159</v>
@@ -6271,13 +6265,13 @@
         <v>3675752</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M23" s="7">
         <v>8387</v>
@@ -6289,10 +6283,10 @@
         <v>21</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6348,7 +6342,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C06-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BB79ABF-3A2B-49BE-8ED9-97FB7BC8A985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26B9CECB-152B-4226-B156-DE1EE8EBFF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3B08FC49-7A56-4278-AE7E-86F4C739F8D3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{55F0B691-9F66-4E77-9100-90FBF4A80B6E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="350">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,98%</t>
@@ -80,1003 +80,1015 @@
     <t>0,28%</t>
   </si>
   <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
     <t>2,7%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,02%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
   <si>
     <t>97,3%</t>
   </si>
   <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>4,94%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
   </si>
   <si>
     <t>99,41%</t>
   </si>
   <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
   </si>
   <si>
     <t>1,45%</t>
   </si>
   <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
   </si>
   <si>
     <t>98,55%</t>
   </si>
   <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
   </si>
   <si>
     <t>99,58%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
+    <t>99,52%</t>
   </si>
 </sst>
 </file>
@@ -1488,7 +1500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5FA299-B15A-4F05-93CA-F01AAD854C22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0830B15-620F-4BE2-B984-5B934D37A3E4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1925,10 +1937,10 @@
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -1937,13 +1949,13 @@
         <v>8319</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -1952,13 +1964,13 @@
         <v>12243</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1973,13 +1985,13 @@
         <v>499009</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>567</v>
@@ -1988,13 +2000,13 @@
         <v>595246</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1049</v>
@@ -2003,13 +2015,13 @@
         <v>1094254</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2065,7 +2077,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2077,13 +2089,13 @@
         <v>1910</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -2092,13 +2104,13 @@
         <v>9532</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -2107,13 +2119,13 @@
         <v>11442</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2128,13 +2140,13 @@
         <v>402838</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>419</v>
@@ -2143,13 +2155,13 @@
         <v>429653</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>797</v>
@@ -2158,13 +2170,13 @@
         <v>832491</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2220,7 +2232,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2232,13 +2244,13 @@
         <v>6602</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2247,13 +2259,13 @@
         <v>2671</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -2262,13 +2274,13 @@
         <v>9273</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2283,13 +2295,13 @@
         <v>265747</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>310</v>
@@ -2298,13 +2310,13 @@
         <v>316411</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M17" s="7">
         <v>579</v>
@@ -2313,13 +2325,13 @@
         <v>582158</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2375,7 +2387,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2387,13 +2399,13 @@
         <v>6982</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -2402,13 +2414,13 @@
         <v>2878</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>33</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -2417,13 +2429,13 @@
         <v>9860</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2438,13 +2450,13 @@
         <v>332547</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>446</v>
@@ -2453,10 +2465,10 @@
         <v>452268</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>43</v>
@@ -2468,13 +2480,13 @@
         <v>784815</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2542,13 +2554,13 @@
         <v>26937</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -2557,13 +2569,13 @@
         <v>30986</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -2572,13 +2584,13 @@
         <v>57923</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2593,13 +2605,13 @@
         <v>2427805</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H23" s="7">
         <v>2648</v>
@@ -2608,13 +2620,13 @@
         <v>2709951</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="M23" s="7">
         <v>5028</v>
@@ -2623,13 +2635,13 @@
         <v>5137756</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,7 +2697,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2707,7 +2719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EBC6E7-18F5-447A-97CD-860DF7EB35AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBB69CB-7263-4A4C-B821-69A5C62AFB64}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2724,7 +2736,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2831,13 +2843,13 @@
         <v>4957</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -2846,13 +2858,13 @@
         <v>2847</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -2861,13 +2873,13 @@
         <v>7804</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,13 +2894,13 @@
         <v>374219</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="H5" s="7">
         <v>359</v>
@@ -2897,13 +2909,13 @@
         <v>368143</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="M5" s="7">
         <v>727</v>
@@ -2912,13 +2924,13 @@
         <v>742362</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,13 +2998,13 @@
         <v>5369</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -3001,13 +3013,13 @@
         <v>4962</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -3016,13 +3028,13 @@
         <v>10331</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3037,13 +3049,13 @@
         <v>591898</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>518</v>
@@ -3052,13 +3064,13 @@
         <v>553848</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>1093</v>
@@ -3067,13 +3079,13 @@
         <v>1145745</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,13 +3153,13 @@
         <v>6986</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -3156,13 +3168,13 @@
         <v>15763</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -3171,10 +3183,10 @@
         <v>22749</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3192,13 +3204,13 @@
         <v>579665</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="H11" s="7">
         <v>605</v>
@@ -3207,13 +3219,13 @@
         <v>642646</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="M11" s="7">
         <v>1161</v>
@@ -3222,13 +3234,13 @@
         <v>1222311</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>162</v>
+        <v>61</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,7 +3296,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3296,13 +3308,13 @@
         <v>6600</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -3311,13 +3323,13 @@
         <v>10105</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -3326,13 +3338,13 @@
         <v>16705</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,13 +3359,13 @@
         <v>536240</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="H14" s="7">
         <v>484</v>
@@ -3362,13 +3374,13 @@
         <v>553246</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="M14" s="7">
         <v>962</v>
@@ -3377,13 +3389,13 @@
         <v>1089485</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,7 +3451,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3451,13 +3463,13 @@
         <v>3104</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -3466,13 +3478,13 @@
         <v>5269</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -3481,13 +3493,13 @@
         <v>8373</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,13 +3514,13 @@
         <v>358206</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H17" s="7">
         <v>348</v>
@@ -3517,13 +3529,13 @@
         <v>385446</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>192</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M17" s="7">
         <v>678</v>
@@ -3532,13 +3544,13 @@
         <v>743652</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,7 +3606,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3606,13 +3618,13 @@
         <v>1990</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>196</v>
+        <v>18</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -3621,13 +3633,13 @@
         <v>6219</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -3639,10 +3651,10 @@
         <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,13 +3669,13 @@
         <v>445426</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H20" s="7">
         <v>558</v>
@@ -3672,13 +3684,13 @@
         <v>596783</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>94</v>
+        <v>204</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M20" s="7">
         <v>960</v>
@@ -3687,13 +3699,13 @@
         <v>1042209</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3761,13 +3773,13 @@
         <v>29005</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>103</v>
+        <v>209</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>205</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -3776,13 +3788,13 @@
         <v>45167</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>52</v>
+        <v>211</v>
       </c>
       <c r="M22" s="7">
         <v>69</v>
@@ -3791,13 +3803,13 @@
         <v>74172</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>212</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,13 +3824,13 @@
         <v>2885653</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>209</v>
+        <v>126</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>110</v>
+        <v>214</v>
       </c>
       <c r="H23" s="7">
         <v>2872</v>
@@ -3827,13 +3839,13 @@
         <v>3100110</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>60</v>
+        <v>216</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="M23" s="7">
         <v>5581</v>
@@ -3842,13 +3854,13 @@
         <v>5985764</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,7 +3916,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3926,7 +3938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47A6F75-606A-4038-AE21-21C6FDA5B582}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E705767C-1814-4FC3-BCB2-9D6D441046F9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3943,7 +3955,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4050,13 +4062,13 @@
         <v>3011</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -4065,13 +4077,13 @@
         <v>3909</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -4083,10 +4095,10 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,13 +4113,13 @@
         <v>349829</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="H5" s="7">
         <v>355</v>
@@ -4116,10 +4128,10 @@
         <v>348021</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -4134,10 +4146,10 @@
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,13 +4217,13 @@
         <v>5695</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>129</v>
+        <v>228</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4220,13 +4232,13 @@
         <v>6653</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>231</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -4235,13 +4247,13 @@
         <v>12348</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,13 +4268,13 @@
         <v>487383</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>137</v>
+        <v>235</v>
       </c>
       <c r="H8" s="7">
         <v>503</v>
@@ -4271,13 +4283,13 @@
         <v>490067</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>237</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="M8" s="7">
         <v>973</v>
@@ -4286,13 +4298,13 @@
         <v>977449</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,13 +4372,13 @@
         <v>4307</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -4375,13 +4387,13 @@
         <v>5279</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -4390,13 +4402,13 @@
         <v>9586</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>129</v>
+        <v>244</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>237</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,13 +4423,13 @@
         <v>553553</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="H11" s="7">
         <v>571</v>
@@ -4426,13 +4438,13 @@
         <v>567801</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>240</v>
+        <v>25</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M11" s="7">
         <v>1098</v>
@@ -4441,13 +4453,13 @@
         <v>1121354</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>242</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>137</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,7 +4515,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4515,13 +4527,13 @@
         <v>6549</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -4530,13 +4542,13 @@
         <v>5411</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -4545,13 +4557,13 @@
         <v>11959</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,13 +4578,13 @@
         <v>505823</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="H14" s="7">
         <v>502</v>
@@ -4581,13 +4593,13 @@
         <v>539473</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="M14" s="7">
         <v>960</v>
@@ -4596,13 +4608,13 @@
         <v>1045297</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,7 +4670,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4670,13 +4682,13 @@
         <v>6220</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -4685,13 +4697,13 @@
         <v>9049</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>258</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>259</v>
+        <v>120</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -4700,13 +4712,13 @@
         <v>15269</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,13 +4733,13 @@
         <v>364782</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H17" s="7">
         <v>337</v>
@@ -4736,13 +4748,13 @@
         <v>386824</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>267</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>269</v>
+        <v>125</v>
       </c>
       <c r="M17" s="7">
         <v>661</v>
@@ -4751,13 +4763,13 @@
         <v>751606</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,7 +4825,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4825,13 +4837,13 @@
         <v>5821</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -4840,13 +4852,13 @@
         <v>7979</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>197</v>
+        <v>278</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>54</v>
+        <v>279</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -4855,13 +4867,13 @@
         <v>13800</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>115</v>
+        <v>281</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>55</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,13 +4888,13 @@
         <v>371361</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="H20" s="7">
         <v>423</v>
@@ -4891,13 +4903,13 @@
         <v>496848</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>201</v>
+        <v>286</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>63</v>
+        <v>288</v>
       </c>
       <c r="M20" s="7">
         <v>818</v>
@@ -4906,13 +4918,13 @@
         <v>868209</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>289</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>62</v>
+        <v>290</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4980,13 +4992,13 @@
         <v>31603</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>281</v>
+        <v>51</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>37</v>
+        <v>291</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -4995,13 +5007,13 @@
         <v>38279</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>282</v>
+        <v>212</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>292</v>
       </c>
       <c r="M22" s="7">
         <v>64</v>
@@ -5010,13 +5022,13 @@
         <v>69882</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>208</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>90</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5031,13 +5043,13 @@
         <v>2632731</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>284</v>
+        <v>60</v>
       </c>
       <c r="H23" s="7">
         <v>2691</v>
@@ -5046,28 +5058,28 @@
         <v>2829036</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>296</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>217</v>
       </c>
       <c r="M23" s="7">
         <v>5193</v>
       </c>
       <c r="N23" s="7">
-        <v>5461766</v>
+        <v>5461767</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>97</v>
+        <v>298</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>21</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,7 +5121,7 @@
         <v>5257</v>
       </c>
       <c r="N24" s="7">
-        <v>5531648</v>
+        <v>5531649</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -5123,7 +5135,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -5145,7 +5157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0110EF27-9402-49D4-B208-2ABE223626BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7A8335-20F9-4F07-8B5E-371754E14978}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5162,7 +5174,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5269,13 +5281,13 @@
         <v>4506</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5284,13 +5296,13 @@
         <v>2035</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>57</v>
+        <v>301</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -5299,13 +5311,13 @@
         <v>6541</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5320,13 +5332,13 @@
         <v>353252</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H5" s="7">
         <v>194</v>
@@ -5335,13 +5347,13 @@
         <v>342461</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>66</v>
+        <v>307</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M5" s="7">
         <v>349</v>
@@ -5350,13 +5362,13 @@
         <v>695713</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,13 +5436,13 @@
         <v>2717</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>299</v>
+        <v>151</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -5439,13 +5451,13 @@
         <v>5454</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -5454,13 +5466,13 @@
         <v>8171</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>142</v>
+        <v>315</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5475,13 +5487,13 @@
         <v>404483</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>305</v>
+        <v>158</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H8" s="7">
         <v>437</v>
@@ -5490,13 +5502,13 @@
         <v>480421</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M8" s="7">
         <v>716</v>
@@ -5505,13 +5517,13 @@
         <v>884904</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>149</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,13 +5591,13 @@
         <v>1173</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>243</v>
+        <v>322</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -5594,13 +5606,13 @@
         <v>4121</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -5609,13 +5621,13 @@
         <v>5294</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>245</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5630,13 +5642,13 @@
         <v>543182</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>249</v>
+        <v>324</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H11" s="7">
         <v>819</v>
@@ -5645,13 +5657,13 @@
         <v>568075</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
         <v>1345</v>
@@ -5660,13 +5672,13 @@
         <v>1111258</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>251</v>
+        <v>325</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5722,7 +5734,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5734,13 +5746,13 @@
         <v>7718</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -5749,13 +5761,13 @@
         <v>13045</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -5764,13 +5776,13 @@
         <v>20763</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>117</v>
+        <v>328</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>234</v>
+        <v>329</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5785,13 +5797,13 @@
         <v>694876</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="H14" s="7">
         <v>1100</v>
@@ -5800,13 +5812,13 @@
         <v>720762</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="M14" s="7">
         <v>1735</v>
@@ -5815,13 +5827,13 @@
         <v>1415637</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>120</v>
+        <v>332</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>239</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5877,7 +5889,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5889,13 +5901,13 @@
         <v>6298</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>323</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -5904,13 +5916,13 @@
         <v>8378</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -5919,13 +5931,13 @@
         <v>14676</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5940,13 +5952,13 @@
         <v>578472</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>327</v>
+        <v>240</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="H17" s="7">
         <v>967</v>
@@ -5955,28 +5967,28 @@
         <v>573965</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>1605</v>
       </c>
       <c r="N17" s="7">
-        <v>1152438</v>
+        <v>1152437</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6018,7 +6030,7 @@
         <v>1626</v>
       </c>
       <c r="N18" s="7">
-        <v>1167114</v>
+        <v>1167113</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6032,7 +6044,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6044,13 +6056,13 @@
         <v>4881</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>331</v>
+        <v>275</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -6059,13 +6071,13 @@
         <v>8062</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>198</v>
+        <v>342</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -6074,13 +6086,13 @@
         <v>12943</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>335</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6095,13 +6107,13 @@
         <v>675581</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>336</v>
+        <v>283</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="H20" s="7">
         <v>1642</v>
@@ -6110,13 +6122,13 @@
         <v>990068</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>202</v>
+        <v>348</v>
       </c>
       <c r="M20" s="7">
         <v>2637</v>
@@ -6125,13 +6137,13 @@
         <v>1665649</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,13 +6211,13 @@
         <v>27293</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>256</v>
+        <v>190</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>243</v>
+        <v>109</v>
       </c>
       <c r="H22" s="7">
         <v>58</v>
@@ -6214,13 +6226,13 @@
         <v>41096</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>101</v>
+        <v>219</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>342</v>
+        <v>165</v>
       </c>
       <c r="M22" s="7">
         <v>83</v>
@@ -6232,10 +6244,10 @@
         <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>343</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6250,13 +6262,13 @@
         <v>3249845</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>249</v>
+        <v>116</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="H23" s="7">
         <v>5159</v>
@@ -6265,13 +6277,13 @@
         <v>3675752</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>344</v>
+        <v>171</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>109</v>
+        <v>223</v>
       </c>
       <c r="M23" s="7">
         <v>8387</v>
@@ -6283,10 +6295,10 @@
         <v>21</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>345</v>
+        <v>239</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6342,7 +6354,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C06-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26B9CECB-152B-4226-B156-DE1EE8EBFF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36931CC2-971A-436F-82AB-625756FB20A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{55F0B691-9F66-4E77-9100-90FBF4A80B6E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{81E432CD-C07C-4499-B854-4541432BD240}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="390">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,69%</t>
@@ -191,7 +191,7 @@
     <t>99,66%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,78%</t>
@@ -248,7 +248,7 @@
     <t>99,38%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -299,7 +299,7 @@
     <t>99,25%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>2,42%</t>
@@ -350,745 +350,865 @@
     <t>99,21%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
+    <t>98,55%</t>
   </si>
   <si>
     <t>99,37%</t>
   </si>
   <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
   </si>
 </sst>
 </file>
@@ -1500,8 +1620,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0830B15-620F-4BE2-B984-5B934D37A3E4}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F3CE15-36B5-4118-8C60-D8223A59AF2A}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1702,7 +1822,7 @@
         <v>750</v>
       </c>
       <c r="N5" s="7">
-        <v>728529</v>
+        <v>728528</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1753,7 +1873,7 @@
         <v>757</v>
       </c>
       <c r="N6" s="7">
-        <v>735654</v>
+        <v>735653</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2393,10 +2513,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>6982</v>
+        <v>3536</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>104</v>
@@ -2408,31 +2528,31 @@
         <v>106</v>
       </c>
       <c r="H19" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>2878</v>
+        <v>1753</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>6</v>
+      </c>
+      <c r="N19" s="7">
+        <v>5290</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="M19" s="7">
-        <v>10</v>
-      </c>
-      <c r="N19" s="7">
-        <v>9860</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>110</v>
@@ -2444,10 +2564,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>342</v>
+        <v>215</v>
       </c>
       <c r="D20" s="7">
-        <v>332547</v>
+        <v>209229</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>111</v>
@@ -2459,34 +2579,34 @@
         <v>113</v>
       </c>
       <c r="H20" s="7">
-        <v>446</v>
+        <v>265</v>
       </c>
       <c r="I20" s="7">
-        <v>452268</v>
+        <v>245185</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M20" s="7">
+        <v>480</v>
+      </c>
+      <c r="N20" s="7">
+        <v>454413</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M20" s="7">
-        <v>788</v>
-      </c>
-      <c r="N20" s="7">
-        <v>784815</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2495,10 +2615,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>349</v>
+        <v>219</v>
       </c>
       <c r="D21" s="7">
-        <v>339529</v>
+        <v>212765</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2510,10 +2630,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>449</v>
+        <v>267</v>
       </c>
       <c r="I21" s="7">
-        <v>455146</v>
+        <v>246938</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2525,10 +2645,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>798</v>
+        <v>486</v>
       </c>
       <c r="N21" s="7">
-        <v>794675</v>
+        <v>459703</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2542,55 +2662,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>26937</v>
+        <v>3446</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H22" s="7">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>30986</v>
+        <v>1125</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="M22" s="7">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="N22" s="7">
-        <v>57923</v>
+        <v>4571</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2599,49 +2719,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2380</v>
+        <v>127</v>
       </c>
       <c r="D23" s="7">
-        <v>2427805</v>
+        <v>123318</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="H23" s="7">
-        <v>2648</v>
+        <v>181</v>
       </c>
       <c r="I23" s="7">
-        <v>2709951</v>
+        <v>207083</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="M23" s="7">
-        <v>5028</v>
+        <v>308</v>
       </c>
       <c r="N23" s="7">
-        <v>5137756</v>
+        <v>330401</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,63 +2770,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>130</v>
+      </c>
+      <c r="D24" s="7">
+        <v>126764</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>182</v>
+      </c>
+      <c r="I24" s="7">
+        <v>208208</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>312</v>
+      </c>
+      <c r="N24" s="7">
+        <v>334972</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>27</v>
+      </c>
+      <c r="D25" s="7">
+        <v>26937</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" s="7">
+        <v>31</v>
+      </c>
+      <c r="I25" s="7">
+        <v>30986</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M25" s="7">
+        <v>58</v>
+      </c>
+      <c r="N25" s="7">
+        <v>57923</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2380</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2427805</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2648</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2709951</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5028</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5137756</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>2407</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>2454742</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>2679</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>2740937</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>5086</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>5195679</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>128</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2719,8 +2995,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBB69CB-7263-4A4C-B821-69A5C62AFB64}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E5361D-A9E0-43F4-AD3A-2E51A103900F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2736,7 +3012,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2843,13 +3119,13 @@
         <v>4957</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -2858,13 +3134,13 @@
         <v>2847</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>70</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -2873,13 +3149,13 @@
         <v>7804</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,25 +3170,25 @@
         <v>374219</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="H5" s="7">
         <v>359</v>
       </c>
       <c r="I5" s="7">
-        <v>368143</v>
+        <v>368144</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>79</v>
@@ -2924,13 +3200,13 @@
         <v>742362</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,7 +3233,7 @@
         <v>362</v>
       </c>
       <c r="I6" s="7">
-        <v>370990</v>
+        <v>370991</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2998,13 +3274,13 @@
         <v>5369</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -3013,13 +3289,13 @@
         <v>4962</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -3028,13 +3304,13 @@
         <v>10331</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,13 +3325,13 @@
         <v>591898</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="H8" s="7">
         <v>518</v>
@@ -3064,13 +3340,13 @@
         <v>553848</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="M8" s="7">
         <v>1093</v>
@@ -3079,13 +3355,13 @@
         <v>1145745</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3153,13 +3429,13 @@
         <v>6986</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -3168,13 +3444,13 @@
         <v>15763</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -3186,7 +3462,7 @@
         <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3204,13 +3480,13 @@
         <v>579665</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
         <v>605</v>
@@ -3219,13 +3495,13 @@
         <v>642646</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="M11" s="7">
         <v>1161</v>
@@ -3240,7 +3516,7 @@
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,13 +3584,13 @@
         <v>6600</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -3323,13 +3599,13 @@
         <v>10105</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -3338,13 +3614,13 @@
         <v>16705</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,16 +3632,16 @@
         <v>478</v>
       </c>
       <c r="D14" s="7">
-        <v>536240</v>
+        <v>536239</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="H14" s="7">
         <v>484</v>
@@ -3374,10 +3650,10 @@
         <v>553246</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>27</v>
@@ -3389,13 +3665,13 @@
         <v>1089485</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,7 +3683,7 @@
         <v>483</v>
       </c>
       <c r="D15" s="7">
-        <v>542840</v>
+        <v>542839</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3463,13 +3739,13 @@
         <v>3104</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -3478,10 +3754,10 @@
         <v>5269</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>94</v>
@@ -3496,10 +3772,10 @@
         <v>57</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>190</v>
+        <v>121</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>191</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,13 +3790,13 @@
         <v>358206</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H17" s="7">
         <v>348</v>
@@ -3529,13 +3805,13 @@
         <v>385446</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="M17" s="7">
         <v>678</v>
@@ -3547,10 +3823,10 @@
         <v>66</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>196</v>
+        <v>116</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>197</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,43 +3894,43 @@
         <v>1990</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>18</v>
+        <v>205</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>70</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="H19" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>6219</v>
+        <v>2826</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="M19" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N19" s="7">
-        <v>8209</v>
+        <v>4816</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,49 +3939,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>402</v>
+        <v>237</v>
       </c>
       <c r="D20" s="7">
-        <v>445426</v>
+        <v>260500</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>29</v>
+        <v>212</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>79</v>
       </c>
       <c r="H20" s="7">
-        <v>558</v>
+        <v>288</v>
       </c>
       <c r="I20" s="7">
-        <v>596783</v>
+        <v>297763</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="M20" s="7">
-        <v>960</v>
+        <v>525</v>
       </c>
       <c r="N20" s="7">
-        <v>1042209</v>
+        <v>558263</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>78</v>
+        <v>217</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3714,10 +3990,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>404</v>
+        <v>239</v>
       </c>
       <c r="D21" s="7">
-        <v>447416</v>
+        <v>262490</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3729,10 +4005,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>564</v>
+        <v>291</v>
       </c>
       <c r="I21" s="7">
-        <v>603002</v>
+        <v>300589</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3744,10 +4020,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>968</v>
+        <v>530</v>
       </c>
       <c r="N21" s="7">
-        <v>1050418</v>
+        <v>563079</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3761,55 +4037,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>29005</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>208</v>
+        <v>70</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="H22" s="7">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>45167</v>
+        <v>3394</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="M22" s="7">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="N22" s="7">
-        <v>74172</v>
+        <v>3394</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>172</v>
+        <v>224</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>176</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,49 +4094,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2709</v>
+        <v>165</v>
       </c>
       <c r="D23" s="7">
-        <v>2885653</v>
+        <v>184926</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>126</v>
+        <v>226</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>214</v>
+        <v>30</v>
       </c>
       <c r="H23" s="7">
-        <v>2872</v>
+        <v>270</v>
       </c>
       <c r="I23" s="7">
-        <v>3100110</v>
+        <v>299019</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="M23" s="7">
-        <v>5581</v>
+        <v>435</v>
       </c>
       <c r="N23" s="7">
-        <v>5985764</v>
+        <v>483945</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>183</v>
+        <v>67</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,63 +4145,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>165</v>
+      </c>
+      <c r="D24" s="7">
+        <v>184926</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>273</v>
+      </c>
+      <c r="I24" s="7">
+        <v>302413</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>438</v>
+      </c>
+      <c r="N24" s="7">
+        <v>487339</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>27</v>
+      </c>
+      <c r="D25" s="7">
+        <v>29005</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H25" s="7">
+        <v>42</v>
+      </c>
+      <c r="I25" s="7">
+        <v>45167</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="M25" s="7">
+        <v>69</v>
+      </c>
+      <c r="N25" s="7">
+        <v>74172</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2709</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2885654</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2872</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3100110</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5581</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5985764</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>2736</v>
       </c>
-      <c r="D24" s="7">
-        <v>2914658</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>2914659</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>2914</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3145277</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>5650</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6059936</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>128</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3938,8 +4370,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E705767C-1814-4FC3-BCB2-9D6D441046F9}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD62E838-5191-408E-B575-338F7DC98A1F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3955,7 +4387,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4062,13 +4494,13 @@
         <v>3011</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -4083,7 +4515,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -4095,7 +4527,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>19</v>
@@ -4113,13 +4545,13 @@
         <v>349829</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="H5" s="7">
         <v>355</v>
@@ -4131,7 +4563,7 @@
         <v>66</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -4149,7 +4581,7 @@
         <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4649,13 @@
         <v>5695</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>227</v>
+        <v>108</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4232,13 +4664,13 @@
         <v>6653</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -4247,13 +4679,13 @@
         <v>12348</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>55</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,13 +4700,13 @@
         <v>487383</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>234</v>
+        <v>115</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="H8" s="7">
         <v>503</v>
@@ -4283,13 +4715,13 @@
         <v>490067</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>973</v>
@@ -4298,10 +4730,10 @@
         <v>977449</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>65</v>
@@ -4372,13 +4804,13 @@
         <v>4307</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -4387,10 +4819,10 @@
         <v>5279</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>16</v>
@@ -4402,10 +4834,10 @@
         <v>9586</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>92</v>
@@ -4423,10 +4855,10 @@
         <v>553553</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>46</v>
@@ -4438,13 +4870,13 @@
         <v>567801</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="M11" s="7">
         <v>1098</v>
@@ -4453,13 +4885,13 @@
         <v>1121354</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>100</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,13 +4959,13 @@
         <v>6549</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -4542,13 +4974,13 @@
         <v>5411</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -4557,13 +4989,13 @@
         <v>11959</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,13 +5010,13 @@
         <v>505823</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="H14" s="7">
         <v>502</v>
@@ -4593,13 +5025,13 @@
         <v>539473</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="M14" s="7">
         <v>960</v>
@@ -4608,13 +5040,13 @@
         <v>1045297</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,13 +5114,13 @@
         <v>6220</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -4697,13 +5129,13 @@
         <v>9049</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>284</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -4712,13 +5144,13 @@
         <v>15269</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4733,13 +5165,13 @@
         <v>364782</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="H17" s="7">
         <v>337</v>
@@ -4748,13 +5180,13 @@
         <v>386824</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>291</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="M17" s="7">
         <v>661</v>
@@ -4763,13 +5195,13 @@
         <v>751606</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>274</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,49 +5263,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>5821</v>
+        <v>4043</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>276</v>
+        <v>18</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="H19" s="7">
+        <v>3</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3157</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="M19" s="7">
         <v>7</v>
       </c>
-      <c r="I19" s="7">
-        <v>7979</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="M19" s="7">
-        <v>13</v>
-      </c>
       <c r="N19" s="7">
-        <v>13800</v>
+        <v>7200</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>177</v>
+        <v>301</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,49 +5314,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>395</v>
+        <v>222</v>
       </c>
       <c r="D20" s="7">
-        <v>371361</v>
+        <v>226082</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>285</v>
+        <v>29</v>
       </c>
       <c r="H20" s="7">
-        <v>423</v>
+        <v>257</v>
       </c>
       <c r="I20" s="7">
-        <v>496848</v>
+        <v>273791</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="M20" s="7">
-        <v>818</v>
+        <v>479</v>
       </c>
       <c r="N20" s="7">
-        <v>868209</v>
+        <v>499874</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>185</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,10 +5365,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>401</v>
+        <v>226</v>
       </c>
       <c r="D21" s="7">
-        <v>377182</v>
+        <v>230125</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4948,10 +5380,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>430</v>
+        <v>260</v>
       </c>
       <c r="I21" s="7">
-        <v>504827</v>
+        <v>276948</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4963,10 +5395,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>831</v>
+        <v>486</v>
       </c>
       <c r="N21" s="7">
-        <v>882009</v>
+        <v>507074</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4980,55 +5412,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>31603</v>
+        <v>1779</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>162</v>
+        <v>311</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="H22" s="7">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="I22" s="7">
-        <v>38279</v>
+        <v>4821</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>229</v>
+        <v>313</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>212</v>
+        <v>314</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="M22" s="7">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="N22" s="7">
-        <v>69882</v>
+        <v>6600</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>208</v>
+        <v>55</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,49 +5469,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2502</v>
+        <v>173</v>
       </c>
       <c r="D23" s="7">
-        <v>2632731</v>
+        <v>145278</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>167</v>
+        <v>317</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="H23" s="7">
-        <v>2691</v>
+        <v>166</v>
       </c>
       <c r="I23" s="7">
-        <v>2829036</v>
+        <v>223058</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>236</v>
+        <v>319</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>217</v>
+        <v>321</v>
       </c>
       <c r="M23" s="7">
-        <v>5193</v>
+        <v>339</v>
       </c>
       <c r="N23" s="7">
-        <v>5461767</v>
+        <v>368336</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>213</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,63 +5520,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>175</v>
+      </c>
+      <c r="D24" s="7">
+        <v>147057</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>170</v>
+      </c>
+      <c r="I24" s="7">
+        <v>227879</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>345</v>
+      </c>
+      <c r="N24" s="7">
+        <v>374936</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>28</v>
+      </c>
+      <c r="D25" s="7">
+        <v>31603</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H25" s="7">
+        <v>36</v>
+      </c>
+      <c r="I25" s="7">
+        <v>38279</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M25" s="7">
+        <v>64</v>
+      </c>
+      <c r="N25" s="7">
+        <v>69882</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2502</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2632730</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2691</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2829036</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5193</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5461766</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>2530</v>
       </c>
-      <c r="D24" s="7">
-        <v>2664334</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>2664333</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>2727</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>2867315</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>5257</v>
       </c>
-      <c r="N24" s="7">
-        <v>5531649</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>128</v>
+      <c r="N27" s="7">
+        <v>5531648</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5157,8 +5745,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7A8335-20F9-4F07-8B5E-371754E14978}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A73CF0-A8DF-484B-955F-8C443E9D8CE0}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5174,7 +5762,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5278,46 +5866,46 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>4506</v>
+        <v>6038</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>293</v>
+        <v>92</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>70</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>2035</v>
+        <v>1632</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>301</v>
+        <v>121</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>70</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>6541</v>
+        <v>7669</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>303</v>
+        <v>221</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>304</v>
+        <v>225</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>305</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,13 +5917,13 @@
         <v>155</v>
       </c>
       <c r="D5" s="7">
-        <v>353252</v>
+        <v>377409</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>297</v>
+        <v>100</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>79</v>
@@ -5344,13 +5932,13 @@
         <v>194</v>
       </c>
       <c r="I5" s="7">
-        <v>342461</v>
+        <v>301909</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>307</v>
+        <v>126</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>79</v>
@@ -5359,16 +5947,16 @@
         <v>349</v>
       </c>
       <c r="N5" s="7">
-        <v>695713</v>
+        <v>679319</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>309</v>
+        <v>227</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>311</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5380,7 +5968,7 @@
         <v>157</v>
       </c>
       <c r="D6" s="7">
-        <v>357758</v>
+        <v>383447</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5395,7 +5983,7 @@
         <v>195</v>
       </c>
       <c r="I6" s="7">
-        <v>344496</v>
+        <v>303541</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5410,7 +5998,7 @@
         <v>352</v>
       </c>
       <c r="N6" s="7">
-        <v>702254</v>
+        <v>686988</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5433,46 +6021,46 @@
         <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>2717</v>
+        <v>2950</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>312</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>70</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>151</v>
+        <v>338</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>5454</v>
+        <v>4932</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>8171</v>
+        <v>7882</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>315</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>316</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +6072,13 @@
         <v>279</v>
       </c>
       <c r="D8" s="7">
-        <v>404483</v>
+        <v>399401</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>317</v>
+        <v>44</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>158</v>
+        <v>341</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>79</v>
@@ -5499,31 +6087,31 @@
         <v>437</v>
       </c>
       <c r="I8" s="7">
-        <v>480421</v>
+        <v>494760</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="M8" s="7">
         <v>716</v>
       </c>
       <c r="N8" s="7">
-        <v>884904</v>
+        <v>894160</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>320</v>
+        <v>61</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>321</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,7 +6123,7 @@
         <v>281</v>
       </c>
       <c r="D9" s="7">
-        <v>407200</v>
+        <v>402351</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5550,7 +6138,7 @@
         <v>442</v>
       </c>
       <c r="I9" s="7">
-        <v>485875</v>
+        <v>499692</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5565,7 +6153,7 @@
         <v>723</v>
       </c>
       <c r="N9" s="7">
-        <v>893075</v>
+        <v>902042</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5588,46 +6176,46 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1173</v>
+        <v>1019</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>304</v>
+        <v>33</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>70</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>4121</v>
+        <v>3808</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>276</v>
+        <v>345</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>153</v>
+        <v>346</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>5294</v>
+        <v>4827</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>15</v>
+        <v>347</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>304</v>
+        <v>161</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5639,13 +6227,13 @@
         <v>526</v>
       </c>
       <c r="D11" s="7">
-        <v>543182</v>
+        <v>523023</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>311</v>
+        <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>79</v>
@@ -5654,31 +6242,31 @@
         <v>819</v>
       </c>
       <c r="I11" s="7">
-        <v>568075</v>
+        <v>528073</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>285</v>
+        <v>350</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>160</v>
+        <v>351</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>216</v>
       </c>
       <c r="M11" s="7">
         <v>1345</v>
       </c>
       <c r="N11" s="7">
-        <v>1111258</v>
+        <v>1051096</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>26</v>
+        <v>352</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>311</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5690,7 +6278,7 @@
         <v>527</v>
       </c>
       <c r="D12" s="7">
-        <v>544355</v>
+        <v>524042</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5705,7 +6293,7 @@
         <v>825</v>
       </c>
       <c r="I12" s="7">
-        <v>572196</v>
+        <v>531881</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5720,7 +6308,7 @@
         <v>1352</v>
       </c>
       <c r="N12" s="7">
-        <v>1116552</v>
+        <v>1055923</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5743,46 +6331,46 @@
         <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>7718</v>
+        <v>7127</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>326</v>
+        <v>185</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
       </c>
       <c r="I13" s="7">
-        <v>13045</v>
+        <v>12075</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>292</v>
+        <v>354</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>199</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
       </c>
       <c r="N13" s="7">
-        <v>20763</v>
+        <v>19202</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,46 +6382,46 @@
         <v>635</v>
       </c>
       <c r="D14" s="7">
-        <v>694876</v>
+        <v>855801</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>123</v>
+        <v>196</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>330</v>
+        <v>192</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="H14" s="7">
         <v>1100</v>
       </c>
       <c r="I14" s="7">
-        <v>720762</v>
+        <v>688517</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>358</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
         <v>1735</v>
       </c>
       <c r="N14" s="7">
-        <v>1415637</v>
+        <v>1544317</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>158</v>
+        <v>361</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>333</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,7 +6433,7 @@
         <v>641</v>
       </c>
       <c r="D15" s="7">
-        <v>702594</v>
+        <v>862928</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5860,7 +6448,7 @@
         <v>1117</v>
       </c>
       <c r="I15" s="7">
-        <v>733807</v>
+        <v>700592</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5875,7 +6463,7 @@
         <v>1758</v>
       </c>
       <c r="N15" s="7">
-        <v>1436400</v>
+        <v>1563519</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5898,46 +6486,46 @@
         <v>7</v>
       </c>
       <c r="D16" s="7">
-        <v>6298</v>
+        <v>6025</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>334</v>
+        <v>129</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>15</v>
+        <v>362</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>233</v>
+        <v>363</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
       </c>
       <c r="I16" s="7">
-        <v>8378</v>
+        <v>7876</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>364</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
       </c>
       <c r="N16" s="7">
-        <v>14676</v>
+        <v>13901</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>293</v>
+        <v>366</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>105</v>
+        <v>367</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>336</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,46 +6537,46 @@
         <v>638</v>
       </c>
       <c r="D17" s="7">
-        <v>578472</v>
+        <v>540554</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>337</v>
+        <v>134</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>240</v>
+        <v>369</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>26</v>
+        <v>370</v>
       </c>
       <c r="H17" s="7">
         <v>967</v>
       </c>
       <c r="I17" s="7">
-        <v>573965</v>
+        <v>526650</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>372</v>
       </c>
       <c r="M17" s="7">
         <v>1605</v>
       </c>
       <c r="N17" s="7">
-        <v>1152437</v>
+        <v>1067204</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>373</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6000,7 +6588,7 @@
         <v>645</v>
       </c>
       <c r="D18" s="7">
-        <v>584770</v>
+        <v>546579</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6015,7 +6603,7 @@
         <v>981</v>
       </c>
       <c r="I18" s="7">
-        <v>582343</v>
+        <v>534526</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6030,7 +6618,7 @@
         <v>1626</v>
       </c>
       <c r="N18" s="7">
-        <v>1167113</v>
+        <v>1081105</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6050,49 +6638,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>4881</v>
+        <v>3485</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>276</v>
+        <v>17</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>340</v>
+        <v>222</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>275</v>
+        <v>376</v>
       </c>
       <c r="H19" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I19" s="7">
-        <v>8062</v>
+        <v>4300</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="M19" s="7">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N19" s="7">
-        <v>12943</v>
+        <v>7784</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>133</v>
+        <v>364</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,49 +6689,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>995</v>
+        <v>551</v>
       </c>
       <c r="D20" s="7">
-        <v>675581</v>
+        <v>355868</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>285</v>
+        <v>27</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>283</v>
+        <v>380</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>345</v>
+        <v>229</v>
       </c>
       <c r="H20" s="7">
-        <v>1642</v>
+        <v>799</v>
       </c>
       <c r="I20" s="7">
-        <v>990068</v>
+        <v>595609</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="M20" s="7">
-        <v>2637</v>
+        <v>1350</v>
       </c>
       <c r="N20" s="7">
-        <v>1665649</v>
+        <v>951478</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>141</v>
+        <v>372</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>349</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,10 +6740,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1002</v>
+        <v>556</v>
       </c>
       <c r="D21" s="7">
-        <v>680462</v>
+        <v>359353</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6167,10 +6755,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1657</v>
+        <v>807</v>
       </c>
       <c r="I21" s="7">
-        <v>998130</v>
+        <v>599909</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6182,10 +6770,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2659</v>
+        <v>1363</v>
       </c>
       <c r="N21" s="7">
-        <v>1678592</v>
+        <v>959262</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6199,55 +6787,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>27293</v>
+        <v>1182</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="H22" s="7">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="I22" s="7">
-        <v>41096</v>
+        <v>3151</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="M22" s="7">
+        <v>9</v>
+      </c>
+      <c r="N22" s="7">
+        <v>4333</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="M22" s="7">
-        <v>83</v>
-      </c>
-      <c r="N22" s="7">
-        <v>68390</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6256,49 +6844,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3228</v>
+        <v>444</v>
       </c>
       <c r="D23" s="7">
-        <v>3249845</v>
+        <v>274339</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>185</v>
+        <v>113</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="H23" s="7">
-        <v>5159</v>
+        <v>843</v>
       </c>
       <c r="I23" s="7">
-        <v>3675752</v>
+        <v>405536</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1287</v>
+      </c>
+      <c r="N23" s="7">
+        <v>679875</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="M23" s="7">
-        <v>8387</v>
-      </c>
-      <c r="N23" s="7">
-        <v>6925596</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>239</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,63 +6895,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>446</v>
+      </c>
+      <c r="D24" s="7">
+        <v>275521</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>850</v>
+      </c>
+      <c r="I24" s="7">
+        <v>408687</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1296</v>
+      </c>
+      <c r="N24" s="7">
+        <v>684208</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>25</v>
+      </c>
+      <c r="D25" s="7">
+        <v>27826</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="7">
+        <v>58</v>
+      </c>
+      <c r="I25" s="7">
+        <v>37773</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="M25" s="7">
+        <v>83</v>
+      </c>
+      <c r="N25" s="7">
+        <v>65599</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3228</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3326395</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5159</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3541054</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8387</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6867449</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3253</v>
       </c>
-      <c r="D24" s="7">
-        <v>3277138</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3354221</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5217</v>
       </c>
-      <c r="I24" s="7">
-        <v>3716848</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3578827</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8470</v>
       </c>
-      <c r="N24" s="7">
-        <v>6993986</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>128</v>
+      <c r="N27" s="7">
+        <v>6933048</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
